--- a/template_task.xlsx
+++ b/template_task.xlsx
@@ -440,62 +440,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -746,7 +691,7 @@
   <dimension ref="A1:J981"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -820,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="11"/>
     </row>
@@ -976,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="9">
         <v>44732</v>
@@ -987,8 +932,8 @@
       <c r="H8" s="10">
         <v>1</v>
       </c>
-      <c r="I8" s="21" t="s">
-        <v>17</v>
+      <c r="I8" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="J8" s="11"/>
     </row>
@@ -1005,8 +950,8 @@
       <c r="D9" s="10">
         <v>1</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>17</v>
+      <c r="E9" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="F9" s="9">
         <v>44732</v>
@@ -1017,8 +962,8 @@
       <c r="H9" s="10">
         <v>1</v>
       </c>
-      <c r="I9" s="22" t="s">
-        <v>18</v>
+      <c r="I9" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="J9" s="11"/>
     </row>
@@ -1996,17 +1941,17 @@
     <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="D2 D4:D8">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2 H4:H9">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
